--- a/Planilha de investimentos/INVESTIMENTOS EM FUNDOS.xlsx
+++ b/Planilha de investimentos/INVESTIMENTOS EM FUNDOS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b43b7bada039ddb/EXCEL DIO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b43b7bada039ddb/EXCEL DIO/Planilha de investimentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="703" documentId="8_{9AE86CE3-A574-4A67-9A17-10F6F92EFC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C812AB7-6C3C-41F6-A30D-E3D7EA4D4570}"/>
+  <xr:revisionPtr revIDLastSave="744" documentId="8_{9AE86CE3-A574-4A67-9A17-10F6F92EFC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4278B7F5-5B03-4081-832D-13F60C8B92F1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B613FDFB-D0B6-4F0A-9C2D-CEFBDDCECD34}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B613FDFB-D0B6-4F0A-9C2D-CEFBDDCECD34}"/>
   </bookViews>
   <sheets>
     <sheet name="APLICAÇÕES" sheetId="1" r:id="rId1"/>
@@ -276,7 +276,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -741,9 +741,156 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -755,10 +902,9 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -839,75 +985,103 @@
     <xf numFmtId="164" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -915,7 +1089,161 @@
     <cellStyle name="Neutro" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1218,10 +1546,10 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1495,10 +1823,10 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1792,10 +2120,10 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2133,10 +2461,10 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2997,6 +3325,21 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9081EAB7-66C5-4CB5-91D3-F079712D3F2A}" name="Tabela1" displayName="Tabela1" ref="A1:D19" headerRowDxfId="3" totalsRowDxfId="2" headerRowBorderDxfId="8" tableBorderDxfId="9">
+  <autoFilter ref="A1:D19" xr:uid="{9081EAB7-66C5-4CB5-91D3-F079712D3F2A}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{D3571502-0DB7-40DF-88F9-9F0125086833}" name="Chave" totalsRowLabel="Total" dataDxfId="7">
+      <calculatedColumnFormula>$B$15&amp;"-"&amp;C3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{F1401383-674C-445D-AB9B-A533889D3E27}" name="PERFIL" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{0EC0A0BD-2624-4862-9D81-E2D85D4135F5}" name="TIPO DE FII" dataDxfId="5" totalsRowDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{4CFAA2DA-4254-4772-B093-F4C2C58EB492}" name="%" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -3316,8 +3659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287A2E26-43CD-4600-8CA3-F2C1101CB8AE}">
   <dimension ref="A9:K71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3334,102 +3677,102 @@
   <sheetData>
     <row r="9" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="44"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
     </row>
     <row r="11" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="12">
+      <c r="C11" s="46"/>
+      <c r="D11" s="11">
         <v>4200</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="13">
+      <c r="C12" s="48"/>
+      <c r="D12" s="12">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="14">
+      <c r="C13" s="50"/>
+      <c r="D13" s="13">
         <f>D11*30%</f>
         <v>1260</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="41"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="37"/>
     </row>
     <row r="16" spans="2:4" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="15">
+      <c r="C16" s="44"/>
+      <c r="D16" s="14">
         <v>1260</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="16">
+      <c r="C17" s="42"/>
+      <c r="D17" s="15">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="17">
+      <c r="C18" s="42"/>
+      <c r="D18" s="16">
         <v>1.0789999999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="18">
+      <c r="C19" s="32"/>
+      <c r="D19" s="17">
         <f>FV(Taxa_Mensal,Qtd_Anos*12,Aporte*-1)</f>
         <v>306538.10778801696</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="19">
+      <c r="C20" s="34"/>
+      <c r="D20" s="18">
         <f>Patrimonio*Rendimento_Carteira</f>
         <v>1839.2286467281017</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:4" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="4" t="s">
+      <c r="C22" s="2"/>
+      <c r="D22" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3437,14 +3780,14 @@
       <c r="A23" s="1">
         <v>2</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <f>FV($D$18,$A23*12,$D$16*-1)</f>
         <v>34306.810395032975</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <f>C23*Rendimento_Carteira</f>
         <v>205.84086237019787</v>
       </c>
@@ -3453,14 +3796,14 @@
       <c r="A24" s="1">
         <v>5</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <f>FV($D$18,$A24*12,$D$16*-1)</f>
         <v>105558.91163809443</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <f>C24*Rendimento_Carteira</f>
         <v>633.35346982856663</v>
       </c>
@@ -3469,14 +3812,14 @@
       <c r="A25" s="1">
         <v>10</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <f>FV($D$18,$A25*12,$D$16*-1)</f>
         <v>306538.10778801696</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <f>C25*Rendimento_Carteira</f>
         <v>1839.2286467281017</v>
       </c>
@@ -3485,14 +3828,14 @@
       <c r="A26" s="1">
         <v>20</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <f>FV($D$18,$A26*12,$D$16*-1)</f>
         <v>1417749.9841223215</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="8">
         <f>C26*Rendimento_Carteira</f>
         <v>8506.4999047339297</v>
       </c>
@@ -3501,130 +3844,130 @@
       <c r="A27" s="1">
         <v>30</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="9">
         <f>FV($D$18,$A27*12,$D$16*-1)</f>
         <v>5445933.7653059401</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="10">
         <f>C27*Rendimento_Carteira</f>
         <v>32675.602591835643</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="34"/>
+      <c r="D30" s="30"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="24">
         <f>Aporte</f>
         <v>1260</v>
       </c>
-      <c r="D31" s="24"/>
+      <c r="D31" s="23"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C34" s="26">
         <f>VLOOKUP($C$30&amp;"-"&amp;B34,FORMULAÇÕES!$A:$D,4,FALSE)</f>
         <v>0.3</v>
       </c>
-      <c r="D34" s="28">
+      <c r="D34" s="27">
         <f>C34*$C$31</f>
         <v>378</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="27">
+      <c r="C35" s="26">
         <f>VLOOKUP($C$30&amp;"-"&amp;B35,FORMULAÇÕES!$A:$D,4,FALSE)</f>
         <v>0.5</v>
       </c>
-      <c r="D35" s="28">
+      <c r="D35" s="27">
         <f>C35*$C$31</f>
         <v>630</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="27">
+      <c r="C36" s="26">
         <f>VLOOKUP($C$30&amp;"-"&amp;B36,FORMULAÇÕES!$A:$D,4,FALSE)</f>
         <v>0.1</v>
       </c>
-      <c r="D36" s="28">
+      <c r="D36" s="27">
         <f t="shared" ref="D36:D39" si="0">C36*$C$31</f>
         <v>126</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="27">
+      <c r="C37" s="26">
         <f>VLOOKUP($C$30&amp;"-"&amp;B37,FORMULAÇÕES!$A:$D,4,FALSE)</f>
-        <v>0.1</v>
-      </c>
-      <c r="D37" s="28">
+        <v>0.05</v>
+      </c>
+      <c r="D37" s="27">
         <f t="shared" si="0"/>
-        <v>126</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="27">
+      <c r="C38" s="26">
         <f>VLOOKUP($C$30&amp;"-"&amp;B38,FORMULAÇÕES!$A:$D,4,FALSE)</f>
+        <v>0.05</v>
+      </c>
+      <c r="D38" s="27">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="26">
+        <f>VLOOKUP($C$30&amp;"-"&amp;B39,FORMULAÇÕES!$A:$D,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D38" s="28">
+      <c r="D39" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="27">
-        <f>VLOOKUP($C$30&amp;"-"&amp;B39,FORMULAÇÕES!$A:$D,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="30">
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="29">
         <f>SUM(D34:D39)</f>
         <v>1260</v>
       </c>
@@ -3680,10 +4023,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA05739-3A8C-4210-A7B3-5DDD354F4A4A}">
-  <dimension ref="A2:D20"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3693,291 +4036,297 @@
     <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>29</v>
+      <c r="A2" s="55" t="str">
+        <f>$B$2&amp;"-"&amp;C2</f>
+        <v>CONSERVADOR-PAPEL</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="58">
+        <v>0.3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
-        <f>$B$3&amp;"-"&amp;C3</f>
-        <v>CONSERVADOR-PAPEL</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="55" t="str">
+        <f>$B$2&amp;"-"&amp;C3</f>
+        <v>CONSERVADOR-TIJOLO</v>
+      </c>
+      <c r="B3" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="58">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="55" t="str">
+        <f>$B$2&amp;"-"&amp;C4</f>
+        <v>CONSERVADOR-HÍBRIDOS</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="58">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="55" t="str">
+        <f>$B$2&amp;"-"&amp;C5</f>
+        <v>CONSERVADOR-FOFs</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="58">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="55" t="str">
+        <f>$B$2&amp;"-"&amp;C6</f>
+        <v>CONSERVADOR-DESENVOLVIMENTO</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="58">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="59" t="str">
+        <f>$B$2&amp;"-"&amp;C7</f>
+        <v>CONSERVADOR-HOTELARIAS</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="64" t="str">
+        <f>$B$8&amp;"-"&amp;C8</f>
+        <v>MODERADO-PAPEL</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="27">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
-        <f t="shared" ref="A4:A8" si="0">$B$3&amp;"-"&amp;C4</f>
-        <v>CONSERVADOR-TIJOLO</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="26" t="s">
+      <c r="D8" s="67">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="51" t="str">
+        <f>$B$8&amp;"-"&amp;C9</f>
+        <v>MODERADO-TIJOLO</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D9" s="63">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="55" t="str">
+        <f>$B$8&amp;"-"&amp;C10</f>
+        <v>MODERADO-HÍBRIDOS</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="58">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="55" t="str">
+        <f>$B$8&amp;"-"&amp;C11</f>
+        <v>MODERADO-FOFs</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="58">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="55" t="str">
+        <f>$B$8&amp;"-"&amp;C12</f>
+        <v>MODERADO-DESENVOLVIMENTO</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="58">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="59" t="str">
+        <f>$B$8&amp;"-"&amp;C13</f>
+        <v>MODERADO-HOTELARIAS</v>
+      </c>
+      <c r="B13" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="62">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="64" t="str">
+        <f>$B$14&amp;"-"&amp;C14</f>
+        <v>AGRESSIVO-PAPEL</v>
+      </c>
+      <c r="B14" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="67">
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>CONSERVADOR-HÍBRIDOS</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="26" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="51" t="str">
+        <f>$B$14&amp;"-"&amp;C15</f>
+        <v>AGRESSIVO-TIJOLO</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="63">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="55" t="str">
+        <f>$B$14&amp;"-"&amp;C16</f>
+        <v>AGRESSIVO-HÍBRIDOS</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="27">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>CONSERVADOR-FOFs</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="26" t="s">
+      <c r="D16" s="58">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="55" t="str">
+        <f>$B$14&amp;"-"&amp;C17</f>
+        <v>AGRESSIVO-FOFs</v>
+      </c>
+      <c r="B17" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="27">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v>CONSERVADOR-DESENVOLVIMENTO</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="26" t="s">
+      <c r="D17" s="58">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="55" t="str">
+        <f>$B$14&amp;"-"&amp;C18</f>
+        <v>AGRESSIVO-DESENVOLVIMENTO</v>
+      </c>
+      <c r="B18" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>CONSERVADOR-HOTELARIAS</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="32" t="s">
+      <c r="D18" s="58">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="59" t="str">
+        <f>$B$14&amp;"-"&amp;C19</f>
+        <v>AGRESSIVO-HOTELARIAS</v>
+      </c>
+      <c r="B19" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="str">
-        <f>$B$9&amp;"-"&amp;C9</f>
-        <v>MODERADO-PAPEL</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="str">
-        <f t="shared" ref="A10:A14" si="1">$B$9&amp;"-"&amp;C10</f>
-        <v>MODERADO-TIJOLO</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="str">
-        <f t="shared" si="1"/>
-        <v>MODERADO-HÍBRIDOS</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="str">
-        <f t="shared" si="1"/>
-        <v>MODERADO-FOFs</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="str">
-        <f t="shared" si="1"/>
-        <v>MODERADO-DESENVOLVIMENTO</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>MODERADO-HOTELARIAS</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="str">
-        <f>$B$15&amp;"-"&amp;C15</f>
-        <v>AGRESSIVO-PAPEL</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="str">
-        <f t="shared" ref="A16:A20" si="2">$B$15&amp;"-"&amp;C16</f>
-        <v>AGRESSIVO-TIJOLO</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="str">
-        <f t="shared" si="2"/>
-        <v>AGRESSIVO-HÍBRIDOS</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="str">
-        <f t="shared" si="2"/>
-        <v>AGRESSIVO-FOFs</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="str">
-        <f t="shared" si="2"/>
-        <v>AGRESSIVO-DESENVOLVIMENTO</v>
-      </c>
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="str">
-        <f t="shared" si="2"/>
-        <v>AGRESSIVO-HOTELARIAS</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="D19" s="62">
         <v>0.1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <ignoredErrors>
+    <ignoredError sqref="A2:A19" calculatedColumn="1"/>
+  </ignoredErrors>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Planilha de investimentos/INVESTIMENTOS EM FUNDOS.xlsx
+++ b/Planilha de investimentos/INVESTIMENTOS EM FUNDOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b43b7bada039ddb/EXCEL DIO/Planilha de investimentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="744" documentId="8_{9AE86CE3-A574-4A67-9A17-10F6F92EFC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4278B7F5-5B03-4081-832D-13F60C8B92F1}"/>
+  <xr:revisionPtr revIDLastSave="767" documentId="8_{9AE86CE3-A574-4A67-9A17-10F6F92EFC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E80AD2FB-91F9-4077-B380-AE79377EC97F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B613FDFB-D0B6-4F0A-9C2D-CEFBDDCECD34}"/>
   </bookViews>
@@ -144,7 +144,7 @@
     <t>Chave</t>
   </si>
   <si>
-    <t>Sugestão de Investimento (30%)</t>
+    <t>Sugestão de Investimento (20%)</t>
   </si>
 </sst>
 </file>
@@ -156,7 +156,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,8 +232,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,8 +283,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="47">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -304,21 +318,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="2" tint="-9.9948118533890809E-2"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color theme="2" tint="-9.9948118533890809E-2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -463,32 +462,6 @@
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="2" tint="-9.9948118533890809E-2"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
         <color theme="0" tint="-0.14996795556505021"/>
       </top>
       <bottom style="medium">
@@ -533,37 +506,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -882,6 +824,19 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -890,6 +845,231 @@
       </right>
       <top style="medium">
         <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
@@ -902,185 +1082,214 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="9" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="9" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="9" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="9" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="9" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="9" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="9" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="9" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="58" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="9" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="9" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="9" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="9" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3659,8 +3868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287A2E26-43CD-4600-8CA3-F2C1101CB8AE}">
   <dimension ref="A9:K71"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView showGridLines="0" topLeftCell="A26" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3677,102 +3886,102 @@
   <sheetData>
     <row r="9" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="46"/>
     </row>
     <row r="11" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="11">
-        <v>4200</v>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43">
+        <v>3200</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="12">
-        <v>6.0000000000000001E-3</v>
+      <c r="C12" s="23"/>
+      <c r="D12" s="2">
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="13">
-        <f>D11*30%</f>
-        <v>1260</v>
+      <c r="C13" s="69"/>
+      <c r="D13" s="70">
+        <f>D11*20%</f>
+        <v>640</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="37"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
     </row>
     <row r="16" spans="2:4" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="14">
-        <v>1260</v>
+      <c r="C16" s="21"/>
+      <c r="D16" s="3">
+        <v>640</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="15">
-        <v>10</v>
+      <c r="C17" s="19"/>
+      <c r="D17" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="16">
+      <c r="C18" s="19"/>
+      <c r="D18" s="5">
         <v>1.0789999999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="17">
+      <c r="C19" s="12"/>
+      <c r="D19" s="6">
         <f>FV(Taxa_Mensal,Qtd_Anos*12,Aporte*-1)</f>
-        <v>306538.10778801696</v>
+        <v>53617.224959032093</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="18">
+      <c r="C20" s="14"/>
+      <c r="D20" s="7">
         <f>Patrimonio*Rendimento_Carteira</f>
-        <v>1839.2286467281017</v>
+        <v>428.93779967225674</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:4" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="3" t="s">
+      <c r="C22" s="67"/>
+      <c r="D22" s="65" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3780,196 +3989,198 @@
       <c r="A23" s="1">
         <v>2</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="71">
         <f>FV($D$18,$A23*12,$D$16*-1)</f>
-        <v>34306.810395032975</v>
-      </c>
-      <c r="D23" s="6">
+        <v>17425.681470492938</v>
+      </c>
+      <c r="D23" s="72">
         <f>C23*Rendimento_Carteira</f>
-        <v>205.84086237019787</v>
+        <v>139.40545176394352</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>5</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="71">
         <f>FV($D$18,$A24*12,$D$16*-1)</f>
-        <v>105558.91163809443</v>
-      </c>
-      <c r="D24" s="6">
+        <v>53617.224959032093</v>
+      </c>
+      <c r="D24" s="72">
         <f>C24*Rendimento_Carteira</f>
-        <v>633.35346982856663</v>
+        <v>428.93779967225674</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>10</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="71">
         <f>FV($D$18,$A25*12,$D$16*-1)</f>
-        <v>306538.10778801696</v>
-      </c>
-      <c r="D25" s="6">
+        <v>155701.8960193102</v>
+      </c>
+      <c r="D25" s="72">
         <f>C25*Rendimento_Carteira</f>
-        <v>1839.2286467281017</v>
+        <v>1245.6151681544816</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>20</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="73">
         <f>FV($D$18,$A26*12,$D$16*-1)</f>
-        <v>1417749.9841223215</v>
-      </c>
-      <c r="D26" s="8">
+        <v>720126.97606213158</v>
+      </c>
+      <c r="D26" s="74">
         <f>C26*Rendimento_Carteira</f>
-        <v>8506.4999047339297</v>
+        <v>5761.0158084970526</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>30</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="75">
         <f>FV($D$18,$A27*12,$D$16*-1)</f>
-        <v>5445933.7653059401</v>
-      </c>
-      <c r="D27" s="10">
+        <v>2766188.5792030171</v>
+      </c>
+      <c r="D27" s="76">
         <f>C27*Rendimento_Carteira</f>
-        <v>32675.602591835643</v>
+        <v>22129.508633624137</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="22" t="s">
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="30"/>
+      <c r="D30" s="64"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="23" t="s">
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="61">
         <f>Aporte</f>
-        <v>1260</v>
-      </c>
-      <c r="D31" s="23"/>
+        <v>640</v>
+      </c>
+      <c r="D31" s="62"/>
     </row>
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="28" t="s">
+      <c r="D33" s="49" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C34" s="50">
         <f>VLOOKUP($C$30&amp;"-"&amp;B34,FORMULAÇÕES!$A:$D,4,FALSE)</f>
         <v>0.3</v>
       </c>
-      <c r="D34" s="27">
+      <c r="D34" s="53">
         <f>C34*$C$31</f>
-        <v>378</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="26">
+      <c r="C35" s="51">
         <f>VLOOKUP($C$30&amp;"-"&amp;B35,FORMULAÇÕES!$A:$D,4,FALSE)</f>
         <v>0.5</v>
       </c>
-      <c r="D35" s="27">
+      <c r="D35" s="55">
         <f>C35*$C$31</f>
-        <v>630</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="26">
+      <c r="C36" s="51">
         <f>VLOOKUP($C$30&amp;"-"&amp;B36,FORMULAÇÕES!$A:$D,4,FALSE)</f>
         <v>0.1</v>
       </c>
-      <c r="D36" s="27">
+      <c r="D36" s="55">
         <f t="shared" ref="D36:D39" si="0">C36*$C$31</f>
-        <v>126</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="26">
+      <c r="C37" s="51">
         <f>VLOOKUP($C$30&amp;"-"&amp;B37,FORMULAÇÕES!$A:$D,4,FALSE)</f>
         <v>0.05</v>
       </c>
-      <c r="D37" s="27">
+      <c r="D37" s="55">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="26">
+      <c r="C38" s="51">
         <f>VLOOKUP($C$30&amp;"-"&amp;B38,FORMULAÇÕES!$A:$D,4,FALSE)</f>
         <v>0.05</v>
       </c>
-      <c r="D38" s="27">
+      <c r="D38" s="55">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="26">
+      <c r="C39" s="51">
         <f>VLOOKUP($C$30&amp;"-"&amp;B39,FORMULAÇÕES!$A:$D,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D39" s="27">
+      <c r="D39" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="29">
+    <row r="40" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="56"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="58">
         <f>SUM(D34:D39)</f>
-        <v>1260</v>
+        <v>640</v>
       </c>
     </row>
     <row r="49" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -3996,7 +4207,10 @@
     <row r="70" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="71" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B15:D15"/>
@@ -4026,7 +4240,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4037,286 +4251,286 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="27" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="str">
+      <c r="A2" s="28" t="str">
         <f>$B$2&amp;"-"&amp;C2</f>
         <v>CONSERVADOR-PAPEL</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="58">
+      <c r="D2" s="31">
         <v>0.3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="str">
+      <c r="A3" s="28" t="str">
         <f>$B$2&amp;"-"&amp;C3</f>
         <v>CONSERVADOR-TIJOLO</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="58">
+      <c r="D3" s="31">
         <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="55" t="str">
+      <c r="A4" s="28" t="str">
         <f>$B$2&amp;"-"&amp;C4</f>
         <v>CONSERVADOR-HÍBRIDOS</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="58">
+      <c r="D4" s="31">
         <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="55" t="str">
+      <c r="A5" s="28" t="str">
         <f>$B$2&amp;"-"&amp;C5</f>
         <v>CONSERVADOR-FOFs</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="58">
+      <c r="D5" s="31">
         <v>0.05</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="55" t="str">
+      <c r="A6" s="28" t="str">
         <f>$B$2&amp;"-"&amp;C6</f>
         <v>CONSERVADOR-DESENVOLVIMENTO</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="58">
+      <c r="D6" s="31">
         <v>0.05</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="59" t="str">
+      <c r="A7" s="32" t="str">
         <f>$B$2&amp;"-"&amp;C7</f>
         <v>CONSERVADOR-HOTELARIAS</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="62">
+      <c r="D7" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="64" t="str">
+      <c r="A8" s="37" t="str">
         <f>$B$8&amp;"-"&amp;C8</f>
         <v>MODERADO-PAPEL</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="67">
+      <c r="D8" s="40">
         <v>0.32</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="51" t="str">
+      <c r="A9" s="24" t="str">
         <f>$B$8&amp;"-"&amp;C9</f>
         <v>MODERADO-TIJOLO</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="63">
+      <c r="D9" s="36">
         <v>0.35</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="55" t="str">
+      <c r="A10" s="28" t="str">
         <f>$B$8&amp;"-"&amp;C10</f>
         <v>MODERADO-HÍBRIDOS</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="58">
+      <c r="D10" s="31">
         <v>0.08</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="55" t="str">
+      <c r="A11" s="28" t="str">
         <f>$B$8&amp;"-"&amp;C11</f>
         <v>MODERADO-FOFs</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="58">
+      <c r="D11" s="31">
         <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="55" t="str">
+      <c r="A12" s="28" t="str">
         <f>$B$8&amp;"-"&amp;C12</f>
         <v>MODERADO-DESENVOLVIMENTO</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="58">
+      <c r="D12" s="31">
         <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="59" t="str">
+      <c r="A13" s="32" t="str">
         <f>$B$8&amp;"-"&amp;C13</f>
         <v>MODERADO-HOTELARIAS</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="62">
+      <c r="D13" s="35">
         <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="64" t="str">
+      <c r="A14" s="37" t="str">
         <f>$B$14&amp;"-"&amp;C14</f>
         <v>AGRESSIVO-PAPEL</v>
       </c>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="67">
+      <c r="D14" s="40">
         <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="51" t="str">
+      <c r="A15" s="24" t="str">
         <f>$B$14&amp;"-"&amp;C15</f>
         <v>AGRESSIVO-TIJOLO</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="63">
+      <c r="D15" s="36">
         <v>0.1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="55" t="str">
+      <c r="A16" s="28" t="str">
         <f>$B$14&amp;"-"&amp;C16</f>
         <v>AGRESSIVO-HÍBRIDOS</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="58">
+      <c r="D16" s="31">
         <v>0.05</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="55" t="str">
+      <c r="A17" s="28" t="str">
         <f>$B$14&amp;"-"&amp;C17</f>
         <v>AGRESSIVO-FOFs</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="58">
+      <c r="D17" s="31">
         <v>0.05</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="55" t="str">
+      <c r="A18" s="28" t="str">
         <f>$B$14&amp;"-"&amp;C18</f>
         <v>AGRESSIVO-DESENVOLVIMENTO</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="58">
+      <c r="D18" s="31">
         <v>0.2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="59" t="str">
+      <c r="A19" s="32" t="str">
         <f>$B$14&amp;"-"&amp;C19</f>
         <v>AGRESSIVO-HOTELARIAS</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="62">
+      <c r="D19" s="35">
         <v>0.1</v>
       </c>
     </row>

--- a/Planilha de investimentos/INVESTIMENTOS EM FUNDOS.xlsx
+++ b/Planilha de investimentos/INVESTIMENTOS EM FUNDOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b43b7bada039ddb/EXCEL DIO/Planilha de investimentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="767" documentId="8_{9AE86CE3-A574-4A67-9A17-10F6F92EFC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E80AD2FB-91F9-4077-B380-AE79377EC97F}"/>
+  <xr:revisionPtr revIDLastSave="768" documentId="8_{9AE86CE3-A574-4A67-9A17-10F6F92EFC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DFD45C7-C924-49DA-8520-3401C143D4CA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B613FDFB-D0B6-4F0A-9C2D-CEFBDDCECD34}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B613FDFB-D0B6-4F0A-9C2D-CEFBDDCECD34}"/>
   </bookViews>
   <sheets>
     <sheet name="APLICAÇÕES" sheetId="1" r:id="rId1"/>
@@ -3494,15 +3494,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
+      <xdr:rowOff>61913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>147638</xdr:rowOff>
+      <xdr:rowOff>90488</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3868,8 +3868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287A2E26-43CD-4600-8CA3-F2C1101CB8AE}">
   <dimension ref="A9:K71"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A26" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4239,8 +4239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA05739-3A8C-4210-A7B3-5DDD354F4A4A}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Planilha de investimentos/INVESTIMENTOS EM FUNDOS.xlsx
+++ b/Planilha de investimentos/INVESTIMENTOS EM FUNDOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b43b7bada039ddb/EXCEL DIO/Planilha de investimentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="768" documentId="8_{9AE86CE3-A574-4A67-9A17-10F6F92EFC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DFD45C7-C924-49DA-8520-3401C143D4CA}"/>
+  <xr:revisionPtr revIDLastSave="780" documentId="8_{9AE86CE3-A574-4A67-9A17-10F6F92EFC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4639E22-5942-4988-915D-E5F9D243DEAD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B613FDFB-D0B6-4F0A-9C2D-CEFBDDCECD34}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B613FDFB-D0B6-4F0A-9C2D-CEFBDDCECD34}"/>
   </bookViews>
   <sheets>
     <sheet name="APLICAÇÕES" sheetId="1" r:id="rId1"/>
@@ -1213,22 +1213,10 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1290,6 +1278,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="8" fontId="9" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3868,8 +3868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287A2E26-43CD-4600-8CA3-F2C1101CB8AE}">
   <dimension ref="A9:K71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView showGridLines="0" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3898,7 +3898,7 @@
       </c>
       <c r="C11" s="42"/>
       <c r="D11" s="43">
-        <v>3200</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
@@ -3911,13 +3911,13 @@
       </c>
     </row>
     <row r="13" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="70">
+      <c r="C13" s="65"/>
+      <c r="D13" s="66">
         <f>D11*20%</f>
-        <v>640</v>
+        <v>760</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -3934,7 +3934,7 @@
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="3">
-        <v>640</v>
+        <v>760</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3962,7 +3962,7 @@
       <c r="C19" s="12"/>
       <c r="D19" s="6">
         <f>FV(Taxa_Mensal,Qtd_Anos*12,Aporte*-1)</f>
-        <v>53617.224959032093</v>
+        <v>184896.00152293086</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3972,16 +3972,16 @@
       <c r="C20" s="14"/>
       <c r="D20" s="7">
         <f>Patrimonio*Rendimento_Carteira</f>
-        <v>428.93779967225674</v>
+        <v>1479.168012183447</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:4" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="67"/>
-      <c r="D22" s="65" t="s">
+      <c r="C22" s="63"/>
+      <c r="D22" s="61" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3992,13 +3992,13 @@
       <c r="B23" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="71">
+      <c r="C23" s="67">
         <f>FV($D$18,$A23*12,$D$16*-1)</f>
-        <v>17425.681470492938</v>
-      </c>
-      <c r="D23" s="72">
+        <v>20692.996746210363</v>
+      </c>
+      <c r="D23" s="68">
         <f>C23*Rendimento_Carteira</f>
-        <v>139.40545176394352</v>
+        <v>165.5439739696829</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
@@ -4008,13 +4008,13 @@
       <c r="B24" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="71">
+      <c r="C24" s="67">
         <f>FV($D$18,$A24*12,$D$16*-1)</f>
-        <v>53617.224959032093</v>
-      </c>
-      <c r="D24" s="72">
+        <v>63670.454638850606</v>
+      </c>
+      <c r="D24" s="68">
         <f>C24*Rendimento_Carteira</f>
-        <v>428.93779967225674</v>
+        <v>509.36363711080486</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
@@ -4024,13 +4024,13 @@
       <c r="B25" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="71">
+      <c r="C25" s="67">
         <f>FV($D$18,$A25*12,$D$16*-1)</f>
-        <v>155701.8960193102</v>
-      </c>
-      <c r="D25" s="72">
+        <v>184896.00152293086</v>
+      </c>
+      <c r="D25" s="68">
         <f>C25*Rendimento_Carteira</f>
-        <v>1245.6151681544816</v>
+        <v>1479.168012183447</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
@@ -4040,13 +4040,13 @@
       <c r="B26" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="73">
+      <c r="C26" s="69">
         <f>FV($D$18,$A26*12,$D$16*-1)</f>
-        <v>720126.97606213158</v>
-      </c>
-      <c r="D26" s="74">
+        <v>855150.78407378122</v>
+      </c>
+      <c r="D26" s="70">
         <f>C26*Rendimento_Carteira</f>
-        <v>5761.0158084970526</v>
+        <v>6841.2062725902497</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
@@ -4056,34 +4056,34 @@
       <c r="B27" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="75">
+      <c r="C27" s="71">
         <f>FV($D$18,$A27*12,$D$16*-1)</f>
-        <v>2766188.5792030171</v>
-      </c>
-      <c r="D27" s="76">
+        <v>3284848.9378035832</v>
+      </c>
+      <c r="D27" s="72">
         <f>C27*Rendimento_Carteira</f>
-        <v>22129.508633624137</v>
+        <v>26278.791502428667</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="64"/>
+      <c r="D30" s="60"/>
     </row>
     <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="60" t="s">
+      <c r="B31" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="61">
+      <c r="C31" s="57">
         <f>Aporte</f>
-        <v>640</v>
-      </c>
-      <c r="D31" s="62"/>
+        <v>760</v>
+      </c>
+      <c r="D31" s="58"/>
     </row>
     <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
@@ -4098,89 +4098,89 @@
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="52" t="s">
+      <c r="B34" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="50">
+      <c r="C34" s="73">
         <f>VLOOKUP($C$30&amp;"-"&amp;B34,FORMULAÇÕES!$A:$D,4,FALSE)</f>
         <v>0.3</v>
       </c>
-      <c r="D34" s="53">
+      <c r="D34" s="74">
         <f>C34*$C$31</f>
-        <v>192</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="54" t="s">
+      <c r="B35" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="51">
+      <c r="C35" s="75">
         <f>VLOOKUP($C$30&amp;"-"&amp;B35,FORMULAÇÕES!$A:$D,4,FALSE)</f>
         <v>0.5</v>
       </c>
-      <c r="D35" s="55">
+      <c r="D35" s="76">
         <f>C35*$C$31</f>
-        <v>320</v>
+        <v>380</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="54" t="s">
+      <c r="B36" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="51">
+      <c r="C36" s="75">
         <f>VLOOKUP($C$30&amp;"-"&amp;B36,FORMULAÇÕES!$A:$D,4,FALSE)</f>
         <v>0.1</v>
       </c>
-      <c r="D36" s="55">
+      <c r="D36" s="76">
         <f t="shared" ref="D36:D39" si="0">C36*$C$31</f>
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="54" t="s">
+      <c r="B37" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="51">
+      <c r="C37" s="75">
         <f>VLOOKUP($C$30&amp;"-"&amp;B37,FORMULAÇÕES!$A:$D,4,FALSE)</f>
         <v>0.05</v>
       </c>
-      <c r="D37" s="55">
+      <c r="D37" s="76">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="54" t="s">
+      <c r="B38" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="51">
+      <c r="C38" s="75">
         <f>VLOOKUP($C$30&amp;"-"&amp;B38,FORMULAÇÕES!$A:$D,4,FALSE)</f>
         <v>0.05</v>
       </c>
-      <c r="D38" s="55">
+      <c r="D38" s="76">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="54" t="s">
+      <c r="B39" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="51">
+      <c r="C39" s="75">
         <f>VLOOKUP($C$30&amp;"-"&amp;B39,FORMULAÇÕES!$A:$D,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D39" s="55">
+      <c r="D39" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="56"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="58">
+      <c r="B40" s="52"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="54">
         <f>SUM(D34:D39)</f>
-        <v>640</v>
+        <v>760</v>
       </c>
     </row>
     <row r="49" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -4239,8 +4239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA05739-3A8C-4210-A7B3-5DDD354F4A4A}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Planilha de investimentos/INVESTIMENTOS EM FUNDOS.xlsx
+++ b/Planilha de investimentos/INVESTIMENTOS EM FUNDOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b43b7bada039ddb/EXCEL DIO/Planilha de investimentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="780" documentId="8_{9AE86CE3-A574-4A67-9A17-10F6F92EFC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4639E22-5942-4988-915D-E5F9D243DEAD}"/>
+  <xr:revisionPtr revIDLastSave="828" documentId="8_{9AE86CE3-A574-4A67-9A17-10F6F92EFC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E423267B-0AB0-4612-85A7-BE386EDD2026}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B613FDFB-D0B6-4F0A-9C2D-CEFBDDCECD34}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B613FDFB-D0B6-4F0A-9C2D-CEFBDDCECD34}"/>
   </bookViews>
   <sheets>
     <sheet name="APLICAÇÕES" sheetId="1" r:id="rId1"/>
@@ -135,16 +135,16 @@
     <t>HOTELARIAS</t>
   </si>
   <si>
-    <t>%</t>
-  </si>
-  <si>
     <t>AGRESSIVO</t>
   </si>
   <si>
-    <t>Chave</t>
+    <t>Sugestão de Investimento (20%)</t>
   </si>
   <si>
-    <t>Sugestão de Investimento (20%)</t>
+    <t>PERCENTUAL %</t>
+  </si>
+  <si>
+    <t>CHAVE</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1082,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1112,45 +1112,6 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1178,7 +1139,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1186,72 +1146,144 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="9" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="9" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="9" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="9" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="58" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="58" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
@@ -1259,89 +1291,15 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="9" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="9" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="9" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="9" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Neutro" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1450,6 +1408,42 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
   </dxfs>
@@ -1746,22 +1740,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.3</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.05</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2023,22 +2017,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.3</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.05</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2320,22 +2314,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.3</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.05</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2661,22 +2655,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.3</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.05</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2709,6 +2703,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.78312339916786422"/>
+          <c:y val="0.26562335958005251"/>
+          <c:w val="0.20481023582459437"/>
+          <c:h val="0.53356809565470986"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -3535,17 +3539,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9081EAB7-66C5-4CB5-91D3-F079712D3F2A}" name="Tabela1" displayName="Tabela1" ref="A1:D19" headerRowDxfId="3" totalsRowDxfId="2" headerRowBorderDxfId="8" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9081EAB7-66C5-4CB5-91D3-F079712D3F2A}" name="Tabela1" displayName="Tabela1" ref="A1:D19" headerRowDxfId="7" totalsRowDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5">
   <autoFilter ref="A1:D19" xr:uid="{9081EAB7-66C5-4CB5-91D3-F079712D3F2A}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D3571502-0DB7-40DF-88F9-9F0125086833}" name="Chave" totalsRowLabel="Total" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{D3571502-0DB7-40DF-88F9-9F0125086833}" name="CHAVE" totalsRowLabel="Total" dataDxfId="3">
       <calculatedColumnFormula>$B$15&amp;"-"&amp;C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F1401383-674C-445D-AB9B-A533889D3E27}" name="PERFIL" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{0EC0A0BD-2624-4862-9D81-E2D85D4135F5}" name="TIPO DE FII" dataDxfId="5" totalsRowDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{4CFAA2DA-4254-4772-B093-F4C2C58EB492}" name="%" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{F1401383-674C-445D-AB9B-A533889D3E27}" name="PERFIL" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{0EC0A0BD-2624-4862-9D81-E2D85D4135F5}" name="TIPO DE FII" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{4CFAA2DA-4254-4772-B093-F4C2C58EB492}" name="PERCENTUAL %" totalsRowFunction="sum" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -3868,8 +3872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287A2E26-43CD-4600-8CA3-F2C1101CB8AE}">
   <dimension ref="A9:K71"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3886,102 +3890,102 @@
   <sheetData>
     <row r="9" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="46"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="65"/>
     </row>
     <row r="11" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43">
+      <c r="C11" s="71"/>
+      <c r="D11" s="27">
         <v>3800</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="23"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="2">
-        <v>8.0000000000000002E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="66">
+      <c r="B13" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="75"/>
+      <c r="D13" s="39">
         <f>D11*20%</f>
         <v>760</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
     </row>
     <row r="16" spans="2:4" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="21"/>
+      <c r="C16" s="69"/>
       <c r="D16" s="3">
         <v>760</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="19"/>
+      <c r="C17" s="67"/>
       <c r="D17" s="4">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="19"/>
+      <c r="C18" s="67"/>
       <c r="D18" s="5">
         <v>1.0789999999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="12"/>
+      <c r="C19" s="57"/>
       <c r="D19" s="6">
         <f>FV(Taxa_Mensal,Qtd_Anos*12,Aporte*-1)</f>
         <v>184896.00152293086</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="14"/>
+      <c r="C20" s="59"/>
       <c r="D20" s="7">
         <f>Patrimonio*Rendimento_Carteira</f>
-        <v>1479.168012183447</v>
+        <v>1664.0640137063776</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:4" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="61" t="s">
+      <c r="C22" s="55"/>
+      <c r="D22" s="38" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3992,13 +3996,13 @@
       <c r="B23" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="67">
+      <c r="C23" s="40">
         <f>FV($D$18,$A23*12,$D$16*-1)</f>
         <v>20692.996746210363</v>
       </c>
-      <c r="D23" s="68">
+      <c r="D23" s="41">
         <f>C23*Rendimento_Carteira</f>
-        <v>165.5439739696829</v>
+        <v>186.23697071589325</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
@@ -4008,13 +4012,13 @@
       <c r="B24" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="67">
+      <c r="C24" s="40">
         <f>FV($D$18,$A24*12,$D$16*-1)</f>
         <v>63670.454638850606</v>
       </c>
-      <c r="D24" s="68">
+      <c r="D24" s="41">
         <f>C24*Rendimento_Carteira</f>
-        <v>509.36363711080486</v>
+        <v>573.03409174965543</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
@@ -4024,13 +4028,13 @@
       <c r="B25" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="67">
+      <c r="C25" s="40">
         <f>FV($D$18,$A25*12,$D$16*-1)</f>
         <v>184896.00152293086</v>
       </c>
-      <c r="D25" s="68">
+      <c r="D25" s="41">
         <f>C25*Rendimento_Carteira</f>
-        <v>1479.168012183447</v>
+        <v>1664.0640137063776</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
@@ -4040,13 +4044,13 @@
       <c r="B26" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="69">
+      <c r="C26" s="42">
         <f>FV($D$18,$A26*12,$D$16*-1)</f>
         <v>855150.78407378122</v>
       </c>
-      <c r="D26" s="70">
+      <c r="D26" s="43">
         <f>C26*Rendimento_Carteira</f>
-        <v>6841.2062725902497</v>
+        <v>7696.3570566640301</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
@@ -4056,129 +4060,129 @@
       <c r="B27" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="71">
+      <c r="C27" s="44">
         <f>FV($D$18,$A27*12,$D$16*-1)</f>
         <v>3284848.9378035832</v>
       </c>
-      <c r="D27" s="72">
+      <c r="D27" s="45">
         <f>C27*Rendimento_Carteira</f>
-        <v>26278.791502428667</v>
+        <v>29563.640440232248</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="60"/>
+      <c r="C30" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="53"/>
     </row>
     <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="56" t="s">
+      <c r="B31" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="57">
+      <c r="C31" s="50">
         <f>Aporte</f>
         <v>760</v>
       </c>
-      <c r="D31" s="58"/>
+      <c r="D31" s="51"/>
     </row>
     <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="48" t="s">
+      <c r="C33" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="49" t="s">
+      <c r="D33" s="30" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="73">
+      <c r="C34" s="46">
         <f>VLOOKUP($C$30&amp;"-"&amp;B34,FORMULAÇÕES!$A:$D,4,FALSE)</f>
-        <v>0.3</v>
-      </c>
-      <c r="D34" s="74">
+        <v>0.32</v>
+      </c>
+      <c r="D34" s="47">
         <f>C34*$C$31</f>
-        <v>228</v>
+        <v>243.20000000000002</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="75">
+      <c r="C35" s="48">
         <f>VLOOKUP($C$30&amp;"-"&amp;B35,FORMULAÇÕES!$A:$D,4,FALSE)</f>
-        <v>0.5</v>
-      </c>
-      <c r="D35" s="76">
+        <v>0.35</v>
+      </c>
+      <c r="D35" s="49">
         <f>C35*$C$31</f>
-        <v>380</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="75">
+      <c r="C36" s="48">
         <f>VLOOKUP($C$30&amp;"-"&amp;B36,FORMULAÇÕES!$A:$D,4,FALSE)</f>
-        <v>0.1</v>
-      </c>
-      <c r="D36" s="76">
+        <v>0.08</v>
+      </c>
+      <c r="D36" s="49">
         <f t="shared" ref="D36:D39" si="0">C36*$C$31</f>
-        <v>76</v>
+        <v>60.800000000000004</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="75">
+      <c r="C37" s="48">
         <f>VLOOKUP($C$30&amp;"-"&amp;B37,FORMULAÇÕES!$A:$D,4,FALSE)</f>
         <v>0.05</v>
       </c>
-      <c r="D37" s="76">
+      <c r="D37" s="49">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="51" t="s">
+      <c r="B38" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="75">
+      <c r="C38" s="48">
         <f>VLOOKUP($C$30&amp;"-"&amp;B38,FORMULAÇÕES!$A:$D,4,FALSE)</f>
-        <v>0.05</v>
-      </c>
-      <c r="D38" s="76">
+        <v>0.1</v>
+      </c>
+      <c r="D38" s="49">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="75">
+      <c r="C39" s="48">
         <f>VLOOKUP($C$30&amp;"-"&amp;B39,FORMULAÇÕES!$A:$D,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="76">
+        <v>0.1</v>
+      </c>
+      <c r="D39" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="52"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="54">
+      <c r="B40" s="33"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="35">
         <f>SUM(D34:D39)</f>
         <v>760</v>
       </c>
@@ -4208,11 +4212,6 @@
     <row r="71" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B17:C17"/>
@@ -4221,6 +4220,11 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30" xr:uid="{FC720B4E-B1F9-4A02-83B0-2DF379CF34DC}">
@@ -4239,8 +4243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA05739-3A8C-4210-A7B3-5DDD354F4A4A}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4248,299 +4252,301 @@
     <col min="1" max="1" width="31.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>31</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="str">
-        <f>$B$2&amp;"-"&amp;C2</f>
+      <c r="A2" s="76" t="str">
+        <f t="shared" ref="A2:A7" si="0">$B$2&amp;"-"&amp;C2</f>
         <v>CONSERVADOR-PAPEL</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="18">
         <v>0.3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="str">
-        <f>$B$2&amp;"-"&amp;C3</f>
+      <c r="A3" s="15" t="str">
+        <f t="shared" si="0"/>
         <v>CONSERVADOR-TIJOLO</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="18">
         <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="str">
-        <f>$B$2&amp;"-"&amp;C4</f>
+      <c r="A4" s="15" t="str">
+        <f t="shared" si="0"/>
         <v>CONSERVADOR-HÍBRIDOS</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="31">
-        <v>0.1</v>
+      <c r="D4" s="18">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="str">
-        <f>$B$2&amp;"-"&amp;C5</f>
+      <c r="A5" s="15" t="str">
+        <f t="shared" si="0"/>
         <v>CONSERVADOR-FOFs</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="18">
         <v>0.05</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="str">
-        <f>$B$2&amp;"-"&amp;C6</f>
+      <c r="A6" s="15" t="str">
+        <f t="shared" si="0"/>
         <v>CONSERVADOR-DESENVOLVIMENTO</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="18">
         <v>0.05</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="32" t="str">
-        <f>$B$2&amp;"-"&amp;C7</f>
+      <c r="A7" s="19" t="str">
+        <f t="shared" si="0"/>
         <v>CONSERVADOR-HOTELARIAS</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="35">
-        <v>0</v>
+      <c r="D7" s="22">
+        <v>0.03</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="37" t="str">
-        <f>$B$8&amp;"-"&amp;C8</f>
+      <c r="A8" s="77" t="str">
+        <f t="shared" ref="A8:A13" si="1">$B$8&amp;"-"&amp;C8</f>
         <v>MODERADO-PAPEL</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="26">
         <v>0.32</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="str">
-        <f>$B$8&amp;"-"&amp;C9</f>
+      <c r="A9" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>MODERADO-TIJOLO</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="23">
         <v>0.35</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="str">
-        <f>$B$8&amp;"-"&amp;C10</f>
+      <c r="A10" s="15" t="str">
+        <f t="shared" si="1"/>
         <v>MODERADO-HÍBRIDOS</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="18">
         <v>0.08</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="str">
-        <f>$B$8&amp;"-"&amp;C11</f>
+      <c r="A11" s="15" t="str">
+        <f t="shared" si="1"/>
         <v>MODERADO-FOFs</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="18">
         <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="str">
-        <f>$B$8&amp;"-"&amp;C12</f>
+      <c r="A12" s="15" t="str">
+        <f t="shared" si="1"/>
         <v>MODERADO-DESENVOLVIMENTO</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="18">
         <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="32" t="str">
-        <f>$B$8&amp;"-"&amp;C13</f>
+      <c r="A13" s="19" t="str">
+        <f t="shared" si="1"/>
         <v>MODERADO-HOTELARIAS</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="22">
         <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="37" t="str">
-        <f>$B$14&amp;"-"&amp;C14</f>
+      <c r="A14" s="77" t="str">
+        <f t="shared" ref="A14:A19" si="2">$B$14&amp;"-"&amp;C14</f>
         <v>AGRESSIVO-PAPEL</v>
       </c>
-      <c r="B14" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="39" t="s">
+      <c r="B14" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="26">
         <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="str">
-        <f>$B$14&amp;"-"&amp;C15</f>
+      <c r="A15" s="11" t="str">
+        <f t="shared" si="2"/>
         <v>AGRESSIVO-TIJOLO</v>
       </c>
-      <c r="B15" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="26" t="s">
+      <c r="B15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="23">
         <v>0.1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="str">
-        <f>$B$14&amp;"-"&amp;C16</f>
+      <c r="A16" s="15" t="str">
+        <f t="shared" si="2"/>
         <v>AGRESSIVO-HÍBRIDOS</v>
       </c>
-      <c r="B16" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="30" t="s">
+      <c r="B16" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="18">
         <v>0.05</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="str">
-        <f>$B$14&amp;"-"&amp;C17</f>
+      <c r="A17" s="15" t="str">
+        <f t="shared" si="2"/>
         <v>AGRESSIVO-FOFs</v>
       </c>
-      <c r="B17" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="30" t="s">
+      <c r="B17" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="18">
         <v>0.05</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="str">
-        <f>$B$14&amp;"-"&amp;C18</f>
+      <c r="A18" s="15" t="str">
+        <f t="shared" si="2"/>
         <v>AGRESSIVO-DESENVOLVIMENTO</v>
       </c>
-      <c r="B18" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="30" t="s">
+      <c r="B18" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="18">
         <v>0.2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="32" t="str">
-        <f>$B$14&amp;"-"&amp;C19</f>
+      <c r="A19" s="19" t="str">
+        <f t="shared" si="2"/>
         <v>AGRESSIVO-HOTELARIAS</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="34" t="s">
+      <c r="B19" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="22">
         <v>0.1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A2:A19" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>